--- a/cosimulation/static/demo/1_ev_impact/vehicle_parameters.xlsx
+++ b/cosimulation/static/demo/1_ev_impact/vehicle_parameters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mygreencar/Desktop/CyDER_vgi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mygreencar/git/CyDER/cosimulation/static/demo/1_ev_impact/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="2300" yWindow="-14640" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>itinerary_filename</t>
   </si>
   <si>
-    <t>result_folder</t>
-  </si>
-  <si>
     <t>vehicle_name</t>
   </si>
   <si>
@@ -150,16 +147,13 @@
     <t>nissan_leaf_2013_6600</t>
   </si>
   <si>
-    <t>result/</t>
-  </si>
-  <si>
-    <t>result/itinerary.csv</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
-    <t>node_800043869</t>
+    <t>load_800043869</t>
+  </si>
+  <si>
+    <t>itinerary.csv</t>
   </si>
 </sst>
 </file>
@@ -514,53 +508,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="3"/>
+    <col min="2" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
+      <c r="B2" s="4">
+        <v>42898</v>
       </c>
       <c r="C2" s="4">
-        <v>42898</v>
-      </c>
-      <c r="D2" s="4">
         <v>42905</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -586,15 +573,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3">
         <v>50</v>
@@ -602,7 +589,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3">
         <v>50</v>
@@ -645,60 +632,60 @@
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2">
         <v>182.37289820671828</v>
@@ -746,12 +733,12 @@
         <v>2000</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3">
         <v>209.65116134564479</v>
@@ -799,12 +786,12 @@
         <v>2000</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2">
         <v>182.37289820671828</v>
@@ -852,7 +839,7 @@
         <v>2000</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -864,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -879,27 +866,27 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="6">
         <v>0.2</v>
@@ -914,10 +901,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -932,10 +919,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
@@ -992,35 +979,35 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1440</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>7200</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/cosimulation/static/demo/1_ev_impact/vehicle_parameters.xlsx
+++ b/cosimulation/static/demo/1_ev_impact/vehicle_parameters.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mygreencar/git/CyDER/cosimulation/static/demo/1_ev_impact/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jonathan\Desktop\CyDER\cosimulation\static\demo\1_ev_impact\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="-14640" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="2295" yWindow="-14640" windowWidth="25605" windowHeight="14175" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -150,10 +147,10 @@
     <t>Home</t>
   </si>
   <si>
-    <t>load_800043869</t>
-  </si>
-  <si>
     <t>itinerary.csv</t>
+  </si>
+  <si>
+    <t>load_314592839851</t>
   </si>
 </sst>
 </file>
@@ -240,6 +237,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -511,18 +511,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="3"/>
-    <col min="4" max="4" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.875" style="3"/>
+    <col min="4" max="4" width="19.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -536,15 +536,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4">
         <v>42898</v>
       </c>
       <c r="C2" s="4">
-        <v>42905</v>
+        <v>42904</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>31</v>
@@ -564,14 +564,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="17.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -579,7 +579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -587,7 +587,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -608,29 +608,29 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.375" style="3" customWidth="1"/>
     <col min="17" max="17" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="3"/>
+    <col min="18" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -683,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -736,7 +736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -789,7 +789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -852,19 +852,19 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -881,7 +881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -899,9 +899,9 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -917,7 +917,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -935,7 +935,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -943,7 +943,7 @@
       <c r="E5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -951,7 +951,7 @@
       <c r="E6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -971,13 +971,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -988,7 +988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -999,7 +999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
